--- a/2022 Joystick Assignments.xlsx
+++ b/2022 Joystick Assignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Button 0</t>
   </si>
@@ -126,13 +126,88 @@
   </si>
   <si>
     <t>Directional Pad (X,Y)</t>
+  </si>
+  <si>
+    <t>Not used</t>
+  </si>
+  <si>
+    <t>X Wheel - Steering</t>
+  </si>
+  <si>
+    <t>Limelight LED OFF</t>
+  </si>
+  <si>
+    <t>Limelight LED ON</t>
+  </si>
+  <si>
+    <t>Start Recording Auto</t>
+  </si>
+  <si>
+    <t>Stop Recording Auto</t>
+  </si>
+  <si>
+    <t>Pivot Left</t>
+  </si>
+  <si>
+    <t>Pivot Right</t>
+  </si>
+  <si>
+    <t>Load Pipeline 0</t>
+  </si>
+  <si>
+    <t>DRIVER</t>
+  </si>
+  <si>
+    <t>Start Driving with Limelight</t>
+  </si>
+  <si>
+    <t>Stop Driving with Limelight</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>Intake Arm Up</t>
+  </si>
+  <si>
+    <t>Shooter</t>
+  </si>
+  <si>
+    <t>Intake Arm Down</t>
+  </si>
+  <si>
+    <t>Intake</t>
+  </si>
+  <si>
+    <t>Set Limelight to Camera Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Limelight to Vision </t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Climb</t>
+  </si>
+  <si>
+    <t>Transfer Release</t>
+  </si>
+  <si>
+    <t>Intake Reverse</t>
+  </si>
+  <si>
+    <t>Intake Higher Speed</t>
+  </si>
+  <si>
+    <t>Y Throttle - move</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +221,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,9 +265,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -189,34 +276,45 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -225,12 +323,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,6 +352,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>497417</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314869</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>118905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9493250" y="42334"/>
+          <a:ext cx="4114286" cy="5495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,156 +660,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:G18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D23:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F2" s="1" t="s">
+    <row r="1" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F10" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F14" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>